--- a/Report/salesReport.xlsx
+++ b/Report/salesReport.xlsx
@@ -1,22 +1,322 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="115_{B4756F30-5934-4221-9EBA-16BCEED88D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="8010" windowWidth="14805" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
-    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesReport" sheetId="2" relationships:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SalesReport" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+  <si>
+    <t>Laptop Lounge Sales Report</t>
+  </si>
+  <si>
+    <t>ItemID</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>Productname</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PayedAmount</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Lenovo ideapad</t>
+  </si>
+  <si>
+    <t>2024-05-10 12:00:08</t>
+  </si>
+  <si>
+    <t>2024-05-10 12:10:19</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2024-05-12 12:56:15</t>
+  </si>
+  <si>
+    <t>2024-05-12 13:04:37</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HP 15s</t>
+  </si>
+  <si>
+    <t>2024-05-12 16:34:50</t>
+  </si>
+  <si>
+    <t>2024-05-12 16:36:54</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2024-05-12 16:43:00</t>
+  </si>
+  <si>
+    <t>2024-05-12 16:43:23</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2024-05-12 19:10:44</t>
+  </si>
+  <si>
+    <t>2024-05-12 19:12:30</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>2024-05-13 11:53:51</t>
+  </si>
+  <si>
+    <t>2024-05-13 11:55:05</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2024-05-13 14:00:54</t>
+  </si>
+  <si>
+    <t>2024-05-13 14:01:59</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2024-05-13 17:14:10</t>
+  </si>
+  <si>
+    <t>2024-05-13 17:17:00</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>2024-05-16 09:50:59</t>
+  </si>
+  <si>
+    <t>2024-05-16 09:54:53</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ASUS Vivobook</t>
+  </si>
+  <si>
+    <t>2024-05-16 10:32:41</t>
+  </si>
+  <si>
+    <t>2024-05-16 10:33:40</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>2024-05-20 14:38:10</t>
+  </si>
+  <si>
+    <t>2024-05-20 14:39:46</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>2024-05-20 14:49:50</t>
+  </si>
+  <si>
+    <t>2024-05-20 14:52:31</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:36:51</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:23</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:44:47</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:27</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:49:37</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:30</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:53:23</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:32</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>2024-05-29 11:53:48</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:34</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:01:26</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:36</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:06:57</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:39</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:11:47</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:44</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:22:40</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:46</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:27:38</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:35:53</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:44:10</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:45:02</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:46:03</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:45:07</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>2024-05-29 12:47:11</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:45:13</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>2024-05-30 10:48:40</t>
+  </si>
+  <si>
+    <t>2024-05-30 17:45:20</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:14:58</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:31:54</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:25:50</t>
+  </si>
+  <si>
+    <t>2024-05-31 10:32:00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,40 +325,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b>true</b>
-      <color rgb="FF000000"/>
-      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b>true</b>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
       <patternFill patternType="none">
-        <fgColor/>
-        <bgColor/>
+        <fgColor auto="1"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill/>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4F81BD"/>
-        <bgColor/>
       </patternFill>
     </fill>
   </fills>
@@ -86,22 +384,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -362,76 +666,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27B70E4-593D-4B40-9339-DE084C5401CA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3779A63E-2023-4F5C-902F-6B3A63E4EB05}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col min="1" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="str">
-        <v>Laptop Lounge Sales Report</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="str">
-        <v>ItemID</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <v>ProductID</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <v>Productname</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <v>Quantity</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <v>PayedAmount</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <v>OrderDate</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <v>EndDate</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="str">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Lenovo ideapad</v>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -439,22 +738,22 @@
       <c r="E3">
         <v>22498</v>
       </c>
-      <c r="F3" t="str">
-        <v>2024-05-10 12:00:08</v>
-      </c>
-      <c r="G3" t="str">
-        <v>2024-05-10 12:10:19</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="str">
-        <v>2</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Lenovo ideapad</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -462,22 +761,22 @@
       <c r="E4">
         <v>27612</v>
       </c>
-      <c r="F4" t="str">
-        <v>2024-05-12 12:56:15</v>
-      </c>
-      <c r="G4" t="str">
-        <v>2024-05-12 13:04:37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>11</v>
-      </c>
-      <c r="B5" t="str">
-        <v>3</v>
-      </c>
-      <c r="C5" t="str">
-        <v>HP 15s</v>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -485,22 +784,22 @@
       <c r="E5">
         <v>32725</v>
       </c>
-      <c r="F5" t="str">
-        <v>2024-05-12 16:34:50</v>
-      </c>
-      <c r="G5" t="str">
-        <v>2024-05-12 16:36:54</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>12</v>
-      </c>
-      <c r="B6" t="str">
-        <v>3</v>
-      </c>
-      <c r="C6" t="str">
-        <v>HP 15s</v>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -508,22 +807,22 @@
       <c r="E6">
         <v>32725</v>
       </c>
-      <c r="F6" t="str">
-        <v>2024-05-12 16:43:00</v>
-      </c>
-      <c r="G6" t="str">
-        <v>2024-05-12 16:43:23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>14</v>
-      </c>
-      <c r="B7" t="str">
-        <v>3</v>
-      </c>
-      <c r="C7" t="str">
-        <v>HP 15s</v>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -531,22 +830,22 @@
       <c r="E7">
         <v>30169</v>
       </c>
-      <c r="F7" t="str">
-        <v>2024-05-12 19:10:44</v>
-      </c>
-      <c r="G7" t="str">
-        <v>2024-05-12 19:12:30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>32</v>
-      </c>
-      <c r="B8" t="str">
-        <v>2</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Lenovo ideapad</v>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -554,22 +853,22 @@
       <c r="E8">
         <v>32725</v>
       </c>
-      <c r="F8" t="str">
-        <v>2024-05-13 11:53:51</v>
-      </c>
-      <c r="G8" t="str">
-        <v>2024-05-13 11:55:05</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>33</v>
-      </c>
-      <c r="B9" t="str">
-        <v>2</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Lenovo ideapad</v>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -577,22 +876,22 @@
       <c r="E9">
         <v>32725</v>
       </c>
-      <c r="F9" t="str">
-        <v>2024-05-13 14:00:54</v>
-      </c>
-      <c r="G9" t="str">
-        <v>2024-05-13 14:01:59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>36</v>
-      </c>
-      <c r="B10" t="str">
-        <v>3</v>
-      </c>
-      <c r="C10" t="str">
-        <v>HP 15s</v>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -600,22 +899,22 @@
       <c r="E10">
         <v>76700</v>
       </c>
-      <c r="F10" t="str">
-        <v>2024-05-13 17:14:10</v>
-      </c>
-      <c r="G10" t="str">
-        <v>2024-05-13 17:17:00</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>45</v>
-      </c>
-      <c r="B11" t="str">
-        <v>2</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Lenovo ideapad</v>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -623,22 +922,22 @@
       <c r="E11">
         <v>73360</v>
       </c>
-      <c r="F11" t="str">
-        <v>2024-05-16 09:50:59</v>
-      </c>
-      <c r="G11" t="str">
-        <v>2024-05-16 09:54:53</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>47</v>
-      </c>
-      <c r="B12" t="str">
-        <v>4</v>
-      </c>
-      <c r="C12" t="str">
-        <v>ASUS Vivobook</v>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -646,22 +945,22 @@
       <c r="E12">
         <v>47194</v>
       </c>
-      <c r="F12" t="str">
-        <v>2024-05-16 10:32:41</v>
-      </c>
-      <c r="G12" t="str">
-        <v>2024-05-16 10:33:40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>54</v>
-      </c>
-      <c r="B13" t="str">
-        <v>4</v>
-      </c>
-      <c r="C13" t="str">
-        <v>ASUS Vivobook</v>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -669,22 +968,22 @@
       <c r="E13">
         <v>47194</v>
       </c>
-      <c r="F13" t="str">
-        <v>2024-05-20 14:38:10</v>
-      </c>
-      <c r="G13" t="str">
-        <v>2024-05-20 14:39:46</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>56</v>
-      </c>
-      <c r="B14" t="str">
-        <v>4</v>
-      </c>
-      <c r="C14" t="str">
-        <v>ASUS Vivobook</v>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -692,16 +991,385 @@
       <c r="E14">
         <v>47194</v>
       </c>
-      <c r="F14" t="str">
-        <v>2024-05-20 14:49:50</v>
-      </c>
-      <c r="G14" t="str">
-        <v>2024-05-20 14:52:31</v>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>45850</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>45850</v>
+      </c>
+      <c r="F16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>45850</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>45850</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>45850</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>38350</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>38350</v>
+      </c>
+      <c r="F21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>38350</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>38350</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>38350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>45850</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>45850</v>
+      </c>
+      <c r="F26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>45850</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>38350</v>
+      </c>
+      <c r="F28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>46020</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>46020</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>